--- a/dictionaries/core/2_2/2_2_trimester_rep.xlsx
+++ b/dictionaries/core/2_2/2_2_trimester_rep.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/2_0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E8455-A622-614C-B92F-0AB0B4F80D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14496" windowHeight="16416"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
   <si>
     <t>name</t>
   </si>
@@ -669,12 +663,18 @@
   </si>
   <si>
     <t>age_trimester</t>
+  </si>
+  <si>
+    <t>mdist_t</t>
+  </si>
+  <si>
+    <t>distance to meteorological station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -809,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,27 +841,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,24 +875,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1106,21 +1070,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="197.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -2340,10 +2304,18 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="4"/>
@@ -3728,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -3736,13 +3708,13 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
